--- a/Input_Data/Distributie_parameters_Length_of_stay.xlsx
+++ b/Input_Data/Distributie_parameters_Length_of_stay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>KS P-value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Shape_Length_of_stay</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Scale_Length_of_stay</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Group_number</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Wardtime</t>
         </is>
@@ -477,152 +482,167 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8821250875614814</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.7885196168637136</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>411.4347118205343</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DER</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1.4290459151095103</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>828.4300086134242</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CAS</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6439.506666666667</v>
+      <c r="H2" t="n">
+        <v>1171.714285714286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.635841705586</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01251905420557065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3733.7753920279793</t>
+          <t>2.40039080035233</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CAS</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>701.5170481147751</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>GYN</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>6640.714285714285</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2102.47619047619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07881966859837464</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.6871509741336275</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2991.731564821926</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>GYN</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.5049245094739476</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17589.861289535187</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CAS</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8881.552083333334</v>
+      <c r="H4" t="n">
+        <v>3168.894736842105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.0460263728968158</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2762776189671111</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>450.15160044006245</t>
+          <t>4.613645940790351</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>381.8047163652952</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>KAA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>2383.455882352941</v>
+      <c r="H5" t="n">
+        <v>442.6798418972332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.8655499852717852</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.236581491428243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3016.5303309896467</t>
+          <t>4.133157717348254</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>416.4420326964031</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>KAA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="n">
-        <v>7611.981981981982</v>
+      <c r="H6" t="n">
+        <v>564.15</v>
       </c>
     </row>
     <row r="7">
@@ -632,28 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1.3940510580119563</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3419817383987179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>616.763846322286</t>
+          <t>2.496057254627786</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>6523.513243677305</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>5352.81954887218</v>
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11546.608</v>
       </c>
     </row>
     <row r="8">
@@ -663,214 +686,235 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.7083430849775766</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03597687934465377</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1358.8392004045959</t>
+          <t>0.7983193670326311</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GYN</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>39218.245232714966</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>2102.47619047619</v>
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>45036.01739130435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.1110900462818587</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02857385435459692</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5697.1047670016505</t>
+          <t>3.714948858643151</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GYN</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>292.5537709037121</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>5397.907232704402</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>365.6886674968867</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1.5432263037285283</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01466206435875645</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>497.5346814881333</t>
+          <t>2.68966774884694</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KAA</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>2963.8618127001378</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>442.6798418972332</v>
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4646.939393939394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2.5526114532850075</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2521549195588847</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>221.00895899138268</t>
+          <t>1.6070366185398992</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KAA</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>4868.47083360548</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>564.15</v>
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11210.1875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1.1909771816265555</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02860255258773725</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2138.28468386589</t>
+          <t>1.055438214584142</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>KAA</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>6710.548888247461</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>1972.5234375</v>
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19520.64864864865</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.9322930670364987</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3205514585475924</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>400.2815529270325</t>
+          <t>2.766252380554126</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>319.29998194358683</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NEU</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
-        <v>1422.461988304094</v>
+      <c r="H13" t="n">
+        <v>571.469387755102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0.47837162476502115</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7867700171126557</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5210.398945736231</t>
+          <t>8.680143472593066</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>2679.4203293694172</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>OOG</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>2492.507009345794</v>
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>349.0459770114942</v>
       </c>
     </row>
     <row r="15">
@@ -880,245 +924,253 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1.2332013060101659</t>
-        </is>
+        <v>37</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5384214630930733</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1555.339080864031</t>
+          <t>3.9830730065475835</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>438.6534310158753</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PLCH</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>4648.45501285347</v>
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>612.8732394366198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1.0409792344512703</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2516613707722878</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11092.063720259075</t>
+          <t>3.7465396755607148</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>343.47242000582963</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>11546.608</v>
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>475.8530351437699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.5023535240490293</t>
-        </is>
+        <v>45</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1493167807977717</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2825.6803022756244</t>
+          <t>3.1448402223378675</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>515.6239510956707</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TAN</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>45036.01739130435</v>
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>721.7590361445783</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1.4761018170323856</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0183933148045678</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>410.3380884012237</t>
+          <t>2.5896252345010455</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>7647.418854329071</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>365.6886674968867</v>
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9615.409937888198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0.44061681824506915</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9248.807136249174</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.111115041826797e-21</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.098694208828881</v>
+      </c>
+      <c r="E19" t="n">
+        <v>442.0203738412832</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>4075.179972936401</v>
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2383.455882352941</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3.3765747057510787</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1758.9047295910095</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.886904936809863e-07</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.435348224052173</v>
+      </c>
+      <c r="E20" t="n">
+        <v>773.5535397362237</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>3</v>
       </c>
-      <c r="G20" t="n">
-        <v>769.639344262295</v>
+      <c r="H20" t="n">
+        <v>5352.81954887218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>log-logistic</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3.39344259424963</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1196.7151541951162</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.729788252965341e-36</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5501469870329405</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4051.696612123393</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>GYN</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>1333.756218905473</v>
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5397.907232704402</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.5814830063282701</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6934.839410242952</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.865986625880286e-09</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3999833029191294</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1645.602255930025</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>KAA</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>12860.65168539326</v>
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1972.5234375</v>
       </c>
     </row>
     <row r="23">
@@ -1128,28 +1180,27 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1.5954641477780003</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>875.5863507622593</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>LOS</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.964492121771283e-08</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.350134616329802</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1598.036174096491</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>9256.502164502164</v>
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4648.45501285347</v>
       </c>
     </row>
     <row r="24">
@@ -1159,400 +1210,387 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.8430871940611585</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1036.598806600898</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.64546360910733e-13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5101312616576327</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1117.928875243029</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>1876.601449275362</v>
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1333.756218905473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1.32295159432609</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3512.5543624342044</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0002355235783059238</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8754210251159779</v>
+      </c>
+      <c r="E25" t="n">
+        <v>991.6914104776637</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>NEC</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
       <c r="G25" t="n">
-        <v>4646.939393939394</v>
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1876.601449275362</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>27</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.7953478335310693</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>9502.846539646996</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.131124529300437e-18</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6437433732540556</v>
+      </c>
+      <c r="E26" t="n">
+        <v>490.582155713631</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>11210.1875</v>
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>657.7480559875584</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>28</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1.055438214584142</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6710.548888247461</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.004890532766102629</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7726218410929062</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1362.870983270485</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>19520.64864864865</v>
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1974.238095238095</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.2847185011797346</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>444.82070370305377</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NEU</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+        <v>36</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.907021163285201e-07</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4581497931582455</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9474.346515274603</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ORTR</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>1</v>
       </c>
-      <c r="G28" t="n">
-        <v>571.469387755102</v>
+      <c r="H28" t="n">
+        <v>10853.44907407407</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2.9239955727107767</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>216.28242042538807</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>OOG</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+        <v>39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.630792497483028e-08</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7012529295203317</v>
+      </c>
+      <c r="E29" t="n">
+        <v>557.6676758982278</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>2</v>
       </c>
-      <c r="G29" t="n">
-        <v>632.4088397790056</v>
+      <c r="H29" t="n">
+        <v>925.0263157894736</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1.9518067111344908</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>336.9944637628801</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.131096564575064e-12</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.3293449955674413</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1625.677545588297</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>657.7480559875584</v>
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1709.190954773869</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2.0937954804128527</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1345.4888152734493</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.699509669548361e-07</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.038104860753597</v>
+      </c>
+      <c r="E31" t="n">
+        <v>842.1083438306748</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="G31" t="n">
-        <v>1248.030418250951</v>
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1643.156521739131</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1.7907875905515758</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1877.9882239876629</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.528324618038245e-09</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9902431199663452</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1036.151171240644</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="G32" t="n">
-        <v>1974.238095238095</v>
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1988.427983539095</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.880738575697968</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5642.5168337206305</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.06748152021256e-17</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.3930953781649354</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15823.36188883422</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CAS</t>
+        </is>
       </c>
       <c r="G33" t="n">
-        <v>6295.120754716982</v>
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6439.506666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>5.300261409221935</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>48025.64182436548</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ORTR</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.613653621286128e-11</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.312304543086029</v>
+      </c>
+      <c r="E34" t="n">
+        <v>323.6617804090496</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="G34" t="n">
-        <v>10853.44907407407</v>
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>769.639344262295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>37</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1.07616309121953</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>638.6050908667199</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>PLCH</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+        <v>24</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.497000957634832e-20</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.3072500570857452</v>
+      </c>
+      <c r="E35" t="n">
+        <v>25907.26972196682</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LOS</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="n">
-        <v>612.8732394366198</v>
+      <c r="H35" t="n">
+        <v>9256.502164502164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>38</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1.1356713514828942</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>506.28780110944507</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.63325632487253e-13</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.204362690348549</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4980.066410094024</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
       </c>
       <c r="G36" t="n">
-        <v>475.8530351437699</v>
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6295.120754716982</v>
       </c>
     </row>
     <row r="37">
@@ -1562,59 +1600,57 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1.1926134836465978</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>775.6295970770551</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+        <v>44</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.241065111817136e-32</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.3604157808990507</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12327.35675990812</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>2</v>
       </c>
-      <c r="G37" t="n">
-        <v>925.0263157894736</v>
+      <c r="H37" t="n">
+        <v>4891.099173553719</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>log-logistic</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2.258001022095443</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>809.5182177305746</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.539928355538397e-53</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.6086085774667785</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2402.870188741686</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="G38" t="n">
-        <v>1143.734782608696</v>
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1481.223577235772</v>
       </c>
     </row>
     <row r="39">
@@ -1624,276 +1660,267 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>41</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>9.353337608337384</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>182.73594157986233</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.221347664277328e-58</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9439451984553863</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1062.107126161943</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="G39" t="n">
-        <v>1709.190954773869</v>
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1066.562403697997</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>log-logistic</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>3.6917070659286066</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5723.511983057313</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.781007051968589e-08</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.678949130516324</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3675.452093641182</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>CAS</t>
+        </is>
       </c>
       <c r="G40" t="n">
-        <v>6372.045226130654</v>
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6640.714285714285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0.3745863591472663</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>5957.271060953377</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>RON</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.388822935705449e-21</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.6062026391163127</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5209.047262886883</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>CAS</t>
+        </is>
       </c>
       <c r="G41" t="n">
-        <v>2231.512477175898</v>
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8881.552083333334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>44</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0.3520500523061325</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>13893.19257734568</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>RON</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.29442093821984e-11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.719582470550853</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5061.690865728993</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
         <v>2</v>
       </c>
-      <c r="G42" t="n">
-        <v>4891.099173553719</v>
+      <c r="H42" t="n">
+        <v>7611.981981981982</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2.1798415871670946</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>331.1061869787386</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>TAN</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.134376672399414e-44</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6564106099560441</v>
+      </c>
+      <c r="E43" t="n">
+        <v>674.7831906966662</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
         <v>1</v>
       </c>
-      <c r="G43" t="n">
-        <v>721.7590361445783</v>
+      <c r="H43" t="n">
+        <v>1422.461988304094</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.6133980882607428</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2414.7834914772916</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.622224908905484e-58</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6032225059428737</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1166.226574516845</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="G44" t="n">
-        <v>1481.223577235772</v>
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2492.507009345794</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>47</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0.8736798353894426</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1220.7703102390785</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.321993438215879e-09</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5969035924085657</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6726.209092115244</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="G45" t="n">
-        <v>1066.562403697997</v>
+        <v>5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>12860.65168539326</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>log-logistic</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1.6494582392563075</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>741.0472480911827</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5.526516400097578e-12</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.460763532224066</v>
+      </c>
+      <c r="E46" t="n">
+        <v>656.195392433575</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>OOG</t>
+        </is>
       </c>
       <c r="G46" t="n">
-        <v>1643.156521739131</v>
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>632.4088397790056</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>log-logistic</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>49</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1.652875840066422</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>974.665578288744</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5.605265611851592e-149</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5438131549683194</v>
+      </c>
+      <c r="E47" t="n">
+        <v>781.0287236055427</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
       </c>
       <c r="G47" t="n">
-        <v>1988.427983539095</v>
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2231.512477175898</v>
       </c>
     </row>
     <row r="48">
@@ -1903,109 +1930,117 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1.6951807819200555</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>9222.804577063132</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8.385432921297316e-18</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.198625339955195</v>
+      </c>
+      <c r="E48" t="n">
+        <v>708.8853993375977</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="G48" t="n">
-        <v>9615.409937888198</v>
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4075.179972936401</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>log-logistic</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C49" t="n">
-        <v>2.018200166533698</v>
+        <v>7.266252668348097e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>392.9814250764917</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>DER</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
+        <v>2.080048145706223</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1265.795425872797</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
       </c>
       <c r="G49" t="n">
-        <v>1171.714285714286</v>
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1248.030418250951</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C50" t="n">
-        <v>2.666413192537932</v>
+        <v>6.025851276795487e-09</v>
       </c>
       <c r="D50" t="n">
-        <v>1228.925636350019</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>GYN</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
+        <v>2.290153124556306</v>
+      </c>
+      <c r="E50" t="n">
+        <v>823.3767592808374</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
         <v>3</v>
       </c>
-      <c r="G50" t="n">
-        <v>3168.894736842105</v>
+      <c r="H50" t="n">
+        <v>1143.734782608696</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C51" t="n">
-        <v>6.352494726106826</v>
+        <v>2.039455683856594e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>57.37388308592783</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>OOG</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
+        <v>3.957160493049166</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5817.999664773841</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
       </c>
       <c r="G51" t="n">
-        <v>349.0459770114942</v>
+        <v>5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6372.045226130654</v>
       </c>
     </row>
   </sheetData>
